--- a/Modelagem/Modelo_SpMedGroup.xlsx
+++ b/Modelagem/Modelo_SpMedGroup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51663853819\Documents\Senai_SpMedGroup_Sprint1_BD_Tarde_MateusBraz\Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E3A981-599E-49B0-8E4F-6EB182211CEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB25E174-044F-4EA6-81C5-F74D6EC0125B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Especialidades" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>86.400.902/0001-30</t>
   </si>
@@ -282,12 +282,6 @@
   </si>
   <si>
     <t>IdADM</t>
-  </si>
-  <si>
-    <t>NomeADM</t>
-  </si>
-  <si>
-    <t>EmailADM</t>
   </si>
   <si>
     <t>Senha</t>
@@ -955,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -974,7 +968,7 @@
     <col min="9" max="16384" width="19.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>81</v>
       </c>
@@ -982,106 +976,65 @@
         <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="7">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="C3" s="7">
         <v>17</v>
       </c>
-      <c r="G3" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="C4" s="9">
         <v>16</v>
       </c>
-      <c r="G4" s="7">
+      <c r="D4" s="7">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC2170E-7EE3-49C7-8292-91D9EF20398B}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,44 +1045,23 @@
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{740BADDB-5C4F-499E-977F-A602D4D2806F}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1153,19 +1085,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1173,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="E2" s="18">
         <v>1</v>
@@ -1196,7 +1128,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3" s="18">
         <v>2</v>
@@ -1213,7 +1145,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="18">
         <v>2</v>
@@ -1230,7 +1162,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -1247,7 +1179,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="7">
         <v>3</v>
@@ -1264,7 +1196,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
@@ -1281,7 +1213,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="7">
         <v>3</v>
@@ -1298,7 +1230,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="7">
         <v>3</v>
@@ -1315,7 +1247,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="7">
         <v>3</v>
@@ -1332,7 +1264,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="7">
         <v>3</v>
@@ -1349,7 +1281,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="7">
         <v>3</v>
@@ -1389,10 +1321,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1400,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1408,7 +1340,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1416,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1428,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1396,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -1657,7 +1589,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>80</v>
@@ -1808,10 +1740,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1819,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1827,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1835,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1847,7 +1779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A693AA-126E-4624-A4B9-53A64CB1F5A3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
